--- a/backend/src/utils/currentOpenings.xlsx
+++ b/backend/src/utils/currentOpenings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Pliani\MegaProject\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Pliani\MegaProject\backend\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="132">
   <si>
     <t>Location</t>
   </si>
@@ -44,397 +45,382 @@
     <t>SkillsRequired</t>
   </si>
   <si>
-    <t>Frontend Developer</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>2–4 years</t>
-  </si>
-  <si>
-    <t>Data Analyst</t>
-  </si>
-  <si>
-    <t>Analytics</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>1–3 years</t>
-  </si>
-  <si>
     <t>PositionID</t>
   </si>
   <si>
-    <t>IT / Engineering</t>
-  </si>
-  <si>
-    <t>HTML, CSS, JavaScript, React.js, REST APIs, Git</t>
-  </si>
-  <si>
-    <t>Backend Developer</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>3–5 years</t>
-  </si>
-  <si>
-    <t>Node.js, Express, MySQL, Sequelize, REST API Design, Authentication</t>
-  </si>
-  <si>
     <t>PostedDate</t>
   </si>
   <si>
     <t>ApplicationDeadline</t>
   </si>
   <si>
-    <t>Responsible for designing and implementing responsive user interfaces and improving UX for our web platform. Collaborates closely with backend engineers and product designers.</t>
-  </si>
-  <si>
-    <t>Builds and maintains scalable backend services, APIs, and integrations with third-party systems. Ensures optimal performance and security.</t>
-  </si>
-  <si>
-    <t>Python, Excel, Power BI, SQL, Data Cleaning, Visualization</t>
-  </si>
-  <si>
-    <t>Analyzes business data, prepares dashboards and insights to help decision-making teams with actionable intelligence.</t>
-  </si>
-  <si>
-    <t>AI/ML Engineer</t>
-  </si>
-  <si>
-    <t>Research &amp; Development</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>2–5 years</t>
-  </si>
-  <si>
-    <t>Python, Scikit-learn, TensorFlow, NLP, Data Preprocessing, ML Pipelines</t>
-  </si>
-  <si>
-    <t>Develops and optimizes AI models for prediction, classification, and recommendation tasks. Works closely with data engineering teams.</t>
-  </si>
-  <si>
-    <t>HR Executive</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Recruitment, Employee Engagement, MS Excel, Communication, Payroll</t>
-  </si>
-  <si>
-    <t>Manages end-to-end recruitment process, onboarding, employee welfare, and assists in maintaining HR databases.</t>
-  </si>
-  <si>
     <t>DevOps Engineer</t>
   </si>
   <si>
-    <t>IT Infrastructure</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>3–6 years</t>
-  </si>
-  <si>
-    <t>AWS, Docker, Kubernetes, CI/CD, Linux, Jenkins</t>
-  </si>
-  <si>
-    <t>Automates deployment pipelines, monitors system uptime, and maintains cloud infrastructure. Works with developers to ensure efficient deployment workflows.</t>
-  </si>
-  <si>
     <t>UI/UX Designer</t>
   </si>
   <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Figma, Adobe XD, Wireframing, Prototyping, Design Systems</t>
-  </si>
-  <si>
-    <t>Designs modern and user-friendly interfaces, conducts user testing, and collaborates with frontend engineers for implementation.</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>Remote</t>
   </si>
   <si>
-    <t>5–8 years</t>
-  </si>
-  <si>
-    <t>Agile, Scrum, Jira, Leadership, Communication</t>
-  </si>
-  <si>
-    <t>Oversees multiple projects, ensures timely delivery, and coordinates across teams to maintain quality and project scope.</t>
-  </si>
-  <si>
-    <t>Cloud Architect</t>
-  </si>
-  <si>
-    <t>Cloud Services</t>
-  </si>
-  <si>
-    <t>AWS, Azure, Terraform, Networking, Cost Optimization</t>
-  </si>
-  <si>
-    <t>Designs cloud architectures and leads migration of legacy systems to cloud platforms. Ensures scalability and resilience.</t>
-  </si>
-  <si>
-    <t>QA Automation Engineer</t>
-  </si>
-  <si>
     <t>Quality Assurance</t>
   </si>
   <si>
     <t>Noida</t>
   </si>
   <si>
-    <t>Selenium, Cypress, Postman, TestNG, JavaScript</t>
-  </si>
-  <si>
-    <t>Develops and maintains automated test scripts to ensure code reliability and continuous testing coverage.</t>
-  </si>
-  <si>
     <t>Business Analyst</t>
   </si>
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Requirement Gathering, MS Excel, Jira, Communication</t>
-  </si>
-  <si>
-    <t>Works with clients and teams to define functional requirements, business flows, and help bridge technical and business goals.</t>
-  </si>
-  <si>
     <t>Full Stack Developer</t>
   </si>
   <si>
-    <t>React.js, Node.js, MongoDB, Express, REST APIs</t>
-  </si>
-  <si>
-    <t>Develops both frontend and backend applications, ensuring end-to-end delivery of scalable web products.</t>
-  </si>
-  <si>
-    <t>Cybersecurity Analyst</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
     <t>Gurgaon</t>
   </si>
   <si>
-    <t>Penetration Testing, Network Security, SIEM Tools, Risk Assessment</t>
-  </si>
-  <si>
-    <t>Identifies vulnerabilities and strengthens system security through analysis, monitoring, and proactive defense mechanisms.</t>
-  </si>
-  <si>
-    <t>Content Writer</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>SEO, Copywriting, Research, Social Media Content</t>
-  </si>
-  <si>
-    <t>Creates engaging content for websites, blogs, and marketing campaigns aligned with brand voice and target audience.</t>
-  </si>
-  <si>
-    <t>Data Engineer</t>
-  </si>
-  <si>
-    <t>Data &amp; AI</t>
-  </si>
-  <si>
-    <t>Python, SQL, Spark, ETL Pipelines, AWS Glue</t>
-  </si>
-  <si>
-    <t>Builds and maintains scalable data pipelines for analytics and machine learning teams.</t>
-  </si>
-  <si>
     <t>Mobile App Developer</t>
   </si>
   <si>
-    <t>Flutter, Dart, Firebase, REST APIs, UI Design</t>
-  </si>
-  <si>
-    <t>Develops cross-platform mobile applications and ensures performance, usability, and scalability across Android and iOS.</t>
-  </si>
-  <si>
-    <t>Digital Marketing Executive</t>
-  </si>
-  <si>
-    <t>Google Ads, SEO, Analytics, Social Media, Content Strategy</t>
-  </si>
-  <si>
-    <t>Executes digital marketing campaigns to improve brand reach and lead generation through multiple online channels.</t>
-  </si>
-  <si>
-    <t>Cloud Support Engineer</t>
-  </si>
-  <si>
-    <t>AWS, Linux, CloudWatch, Troubleshooting, Networking</t>
-  </si>
-  <si>
-    <t>Provides cloud service support, monitors system uptime, and ensures smooth deployments in AWS environment.</t>
-  </si>
-  <si>
-    <t>Product Designer</t>
-  </si>
-  <si>
-    <t>Figma, User Research, Wireframing, UX Writing, Design Thinking</t>
-  </si>
-  <si>
-    <t>Designs intuitive product experiences, conducts user research, and collaborates with engineers to implement UI features.</t>
-  </si>
-  <si>
-    <t>Systems Analyst</t>
-  </si>
-  <si>
-    <t>4–6 years</t>
-  </si>
-  <si>
-    <t>SDLC, UML, SQL, Requirements Analysis</t>
-  </si>
-  <si>
-    <t>Analyzes system requirements and bridges communication between technical teams and stakeholders.</t>
-  </si>
-  <si>
-    <t>Operations Manager</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>Leadership, Process Optimization, ERP, Reporting</t>
-  </si>
-  <si>
-    <t>Manages daily operations, monitors KPIs, and drives efficiency across multiple departments.</t>
-  </si>
-  <si>
     <t>Technical Writer</t>
   </si>
   <si>
     <t>Documentation</t>
   </si>
   <si>
-    <t>Markdown, API Documentation, Git, English Proficiency</t>
-  </si>
-  <si>
-    <t>Creates and maintains developer documentation, API guides, and user manuals.</t>
-  </si>
-  <si>
     <t>Database Administrator</t>
   </si>
   <si>
-    <t>IT / Data Management</t>
-  </si>
-  <si>
-    <t>MySQL, PostgreSQL, Backup Management, Performance Tuning</t>
-  </si>
-  <si>
-    <t>Maintains and optimizes database systems to ensure reliability, availability, and security of data.</t>
-  </si>
-  <si>
-    <t>Financial Analyst</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Excel, Power BI, Budgeting, Forecasting</t>
-  </si>
-  <si>
-    <t>Conducts financial analysis, prepares reports, and supports business decision-making through data-driven insights.</t>
-  </si>
-  <si>
-    <t>Technical Support Specialist</t>
-  </si>
-  <si>
-    <t>IT Support</t>
-  </si>
-  <si>
-    <t>Troubleshooting, Networking, Ticketing Tools, Customer Support</t>
-  </si>
-  <si>
-    <t>Provides first-line technical support to users and resolves software and hardware issues.</t>
-  </si>
-  <si>
-    <t>AI Research Intern</t>
-  </si>
-  <si>
-    <t>0–1 year</t>
-  </si>
-  <si>
-    <t>Python, PyTorch, Data Analysis, Deep Learning</t>
-  </si>
-  <si>
-    <t>Assists in prototyping AI models, testing hypotheses, and contributing to ongoing research papers.</t>
-  </si>
-  <si>
-    <t>Social Media Manager</t>
-  </si>
-  <si>
-    <t>Instagram Ads, Analytics, Copywriting, Brand Strategy</t>
-  </si>
-  <si>
-    <t>Develops and executes social media strategies, handles campaigns, and monitors engagement analytics.</t>
-  </si>
-  <si>
     <t>Network Engineer</t>
   </si>
   <si>
-    <t>LAN/WAN, Cisco, Firewalls, Network Security</t>
-  </si>
-  <si>
-    <t>Installs, configures, and maintains network infrastructure, ensuring uptime and secure connectivity.</t>
-  </si>
-  <si>
-    <t>Legal Associate</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Contract Review, Compliance, Corporate Law, Documentation</t>
-  </si>
-  <si>
-    <t>Drafts and reviews legal documents, ensures regulatory compliance, and assists in corporate governance processes.</t>
-  </si>
-  <si>
-    <t>Customer Success Manager</t>
-  </si>
-  <si>
-    <t>Client Relations</t>
-  </si>
-  <si>
-    <t>4–7 years</t>
-  </si>
-  <si>
-    <t>CRM Tools, Communication, Problem Solving, Customer Retention</t>
-  </si>
-  <si>
-    <t>Builds relationships with enterprise clients, ensures product adoption, and resolves post-deployment issues.</t>
+    <t>IT Manager</t>
+  </si>
+  <si>
+    <t>IT Operations</t>
+  </si>
+  <si>
+    <t>8+ years</t>
+  </si>
+  <si>
+    <t>Project management, ITIL, leadership, budgeting, infrastructure, vendor management</t>
+  </si>
+  <si>
+    <t>Oversee IT strategy, team, and day-to-day operations</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>5+ years</t>
+  </si>
+  <si>
+    <t>Windows, Linux, Active Directory, PowerShell, server hardware</t>
+  </si>
+  <si>
+    <t>Configure and maintain servers, ensure uptime, troubleshoot issues</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>4+ years</t>
+  </si>
+  <si>
+    <t>TCP/IP, routing, switching, VPN, firewalls, Cisco, Juniper</t>
+  </si>
+  <si>
+    <t>Design, implement, and troubleshoot network infrastructure</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>3+ years</t>
+  </si>
+  <si>
+    <t>SQL, MySQL, Oracle, backup &amp; recovery, performance tuning</t>
+  </si>
+  <si>
+    <t>Manage, secure, and optimize organization’s databases</t>
+  </si>
+  <si>
+    <t>Help Desk Technician</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>1+ years</t>
+  </si>
+  <si>
+    <t>Windows, MacOS, troubleshooting, customer service, Office suite</t>
+  </si>
+  <si>
+    <t>Provide tech support to employees, resolve hardware/software issues</t>
+  </si>
+  <si>
+    <t>Front-End Developer</t>
+  </si>
+  <si>
+    <t>Software Dev</t>
+  </si>
+  <si>
+    <t>2+ years</t>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript, React, Angular, UI/UX</t>
+  </si>
+  <si>
+    <t>Build and optimize user-facing web applications</t>
+  </si>
+  <si>
+    <t>Back-End Developer</t>
+  </si>
+  <si>
+    <t>Node.js, Python, Java, API development, SQL/NoSQL, security</t>
+  </si>
+  <si>
+    <t>Build and maintain server-side logic, design APIs</t>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript, React, Node.js, databases, REST APIs</t>
+  </si>
+  <si>
+    <t>Develop end-to-end solutions across stack</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>CI/CD, Jenkins, Docker, Kubernetes, AWS/Azure/GCP, scripting, automation</t>
+  </si>
+  <si>
+    <t>Manage CI pipelines, deployment automation, infrastructure as code</t>
+  </si>
+  <si>
+    <t>Cloud Solutions Architect</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>AWS, Azure, GCP, distributed systems, security, architecture</t>
+  </si>
+  <si>
+    <t>Design scalable cloud solutions and guide implementation</t>
+  </si>
+  <si>
+    <t>Information Security Analyst</t>
+  </si>
+  <si>
+    <t>Cybersecurity, SIEM, firewalls, incident response, risk assessment</t>
+  </si>
+  <si>
+    <t>Protect organization IT resources, monitor and respond to threats</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Python, R, machine learning, data analytics, statistics, SQL, visualization tools</t>
+  </si>
+  <si>
+    <t>Analyze data, create models, drive business decisions</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>Python, deep learning, TensorFlow, PyTorch, ML pipelines, cloud ML services</t>
+  </si>
+  <si>
+    <t>Design, build, and deploy ML models</t>
+  </si>
+  <si>
+    <t>Sketch, Figma, Adobe XD, prototyping, usability testing</t>
+  </si>
+  <si>
+    <t>Design user interfaces, improve user experience</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Selenium, software testing, automation, manual testing, bug tracking</t>
+  </si>
+  <si>
+    <t>Ensure software meets quality standards</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Agile, SCRUM, communication, documentation, customer feedback</t>
+  </si>
+  <si>
+    <t>Define product vision, prioritize backlog, interact with stakeholders</t>
+  </si>
+  <si>
+    <t>SCRUM Master</t>
+  </si>
+  <si>
+    <t>Agile, SCRUM, facilitation, conflict management, project planning</t>
+  </si>
+  <si>
+    <t>Facilitate agile processes and ceremonies</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>PMP, Agile, budgeting, leadership, Microsoft Project, reporting</t>
+  </si>
+  <si>
+    <t>Plan and deliver projects on time and on budget</t>
+  </si>
+  <si>
+    <t>Application Support Engineer</t>
+  </si>
+  <si>
+    <t>SQL, application troubleshooting, PowerShell, integration tools, communication</t>
+  </si>
+  <si>
+    <t>Provide support for business-critical applications</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Documentation, analytics, SQL, requirements gathering, process mapping</t>
+  </si>
+  <si>
+    <t>Bridge business needs and technical teams</t>
+  </si>
+  <si>
+    <t>Android, iOS, React Native, Flutter, REST APIs, UX, testing</t>
+  </si>
+  <si>
+    <t>Design and develop mobile applications</t>
+  </si>
+  <si>
+    <t>IT Support Specialist</t>
+  </si>
+  <si>
+    <t>Troubleshooting, ticketing systems, hardware/software, customer service</t>
+  </si>
+  <si>
+    <t>Support internal IT issues</t>
+  </si>
+  <si>
+    <t>Site Reliability Engineer</t>
+  </si>
+  <si>
+    <t>Monitoring, automation, scripting, incident management, cloud</t>
+  </si>
+  <si>
+    <t>Ensure reliability/scalability of services</t>
+  </si>
+  <si>
+    <t>ERP Consultant</t>
+  </si>
+  <si>
+    <t>Enterprise IT</t>
+  </si>
+  <si>
+    <t>ERP (SAP, Oracle), integration, business process, SQL, reporting</t>
+  </si>
+  <si>
+    <t>Advise on ERP use and improvements</t>
+  </si>
+  <si>
+    <t>Security Operations Center</t>
+  </si>
+  <si>
+    <t>SIEM, incident response, monitoring, threat detection, security protocols</t>
+  </si>
+  <si>
+    <t>Monitor and respond to security incidents</t>
+  </si>
+  <si>
+    <t>Salesforce Developer</t>
+  </si>
+  <si>
+    <t>Salesforce, Apex, Lightning, integration, automation</t>
+  </si>
+  <si>
+    <t>Build and maintain Salesforce applications</t>
+  </si>
+  <si>
+    <t>Solution Architect</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>6+ years</t>
+  </si>
+  <si>
+    <t>Systems architecture, integration, cloud, communication, leadership</t>
+  </si>
+  <si>
+    <t>Design system solutions, oversee large projects</t>
+  </si>
+  <si>
+    <t>Game Developer</t>
+  </si>
+  <si>
+    <t>Unity, Unreal, C#, C++, gameplay mechanics, 3D modeling</t>
+  </si>
+  <si>
+    <t>Build interactive video games</t>
+  </si>
+  <si>
+    <t>Writing, documentation, API docs, user guides, diagrams</t>
+  </si>
+  <si>
+    <t>Create clear technical content</t>
+  </si>
+  <si>
+    <t>IT Recruiter</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Talent acquisition, interviewing, sourcing, negotiation, LinkedIn</t>
+  </si>
+  <si>
+    <t>Source and recruit for IT positions</t>
   </si>
 </sst>
 </file>
@@ -478,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -489,6 +475,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,25 +759,25 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="71.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -811,33 +798,33 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
       </c>
       <c r="H2" s="3">
         <v>45950</v>
@@ -846,27 +833,27 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="3">
         <v>45948</v>
@@ -875,27 +862,27 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="3">
         <v>45940</v>
@@ -904,27 +891,27 @@
         <v>46001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000004</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="3">
         <v>45935</v>
@@ -933,27 +920,27 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1000005</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
       </c>
       <c r="H6" s="3">
         <v>45955</v>
@@ -962,27 +949,27 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000006</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
       </c>
       <c r="H7" s="3">
         <v>45945</v>
@@ -991,27 +978,27 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000007</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
       </c>
       <c r="H8" s="3">
         <v>45952</v>
@@ -1020,27 +1007,27 @@
         <v>46019</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1000008</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="3">
         <v>45942</v>
@@ -1049,27 +1036,27 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1000009</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="3">
         <v>45931</v>
@@ -1078,27 +1065,27 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000010</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
       </c>
       <c r="H11" s="3">
         <v>45938</v>
@@ -1107,27 +1094,27 @@
         <v>46009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1000011</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>65</v>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
       </c>
       <c r="H12" s="3">
         <v>45949</v>
@@ -1136,27 +1123,27 @@
         <v>46013</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000012</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>68</v>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
       </c>
       <c r="H13" s="3">
         <v>45955</v>
@@ -1165,27 +1152,27 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000013</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
       </c>
       <c r="H14" s="3">
         <v>45944</v>
@@ -1194,27 +1181,27 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1000014</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>77</v>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
       </c>
       <c r="H15" s="3">
         <v>45957</v>
@@ -1223,27 +1210,27 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1000015</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
       </c>
       <c r="H16" s="3">
         <v>45947</v>
@@ -1252,27 +1239,27 @@
         <v>46020</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000016</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
       </c>
       <c r="H17" s="3">
         <v>45950</v>
@@ -1281,27 +1268,27 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000017</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>87</v>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
       </c>
       <c r="H18" s="3">
         <v>45952</v>
@@ -1310,27 +1297,27 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1000018</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>90</v>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
       </c>
       <c r="H19" s="3">
         <v>45949</v>
@@ -1339,27 +1326,27 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1000019</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>93</v>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
       </c>
       <c r="H20" s="3">
         <v>45940</v>
@@ -1368,27 +1355,27 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1000020</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
       </c>
       <c r="H21" s="3">
         <v>45942</v>
@@ -1397,26 +1384,26 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1000021</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>101</v>
       </c>
       <c r="H22" s="3">
@@ -1426,27 +1413,27 @@
         <v>46019</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1000022</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="3">
         <v>45947</v>
@@ -1455,27 +1442,27 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1000023</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="G24" t="s">
         <v>107</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="3">
         <v>45944</v>
@@ -1484,27 +1471,27 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1000024</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="G25" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="3">
         <v>45935</v>
@@ -1513,27 +1500,27 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1000025</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="H26" s="3">
         <v>45954</v>
@@ -1542,27 +1529,27 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1000026</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>121</v>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
       </c>
       <c r="H27" s="3">
         <v>45956</v>
@@ -1571,27 +1558,27 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1000027</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H28" s="3">
         <v>45948</v>
@@ -1600,27 +1587,27 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1000028</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" t="s">
         <v>125</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H29" s="3">
         <v>45953</v>
@@ -1629,27 +1616,27 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1000029</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>131</v>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
       </c>
       <c r="H30" s="3">
         <v>45946</v>
@@ -1658,27 +1645,27 @@
         <v>46013</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1000030</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>136</v>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
       </c>
       <c r="H31" s="3">
         <v>45950</v>
@@ -1972,4 +1959,930 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I24" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="4">
+        <v>45970</v>
+      </c>
+      <c r="I31" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>